--- a/LLM_PublicHouseAllocation/experiments/PHA_51tenant_5community_28house/choosed/objective_evaluation_matrix.xlsx
+++ b/LLM_PublicHouseAllocation/experiments/PHA_51tenant_5community_28house/choosed/objective_evaluation_matrix.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,34 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -453,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,43 +434,262 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type_indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ex_name</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>indicator_values</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
+          <t>3&gt;=family_num&gt;=2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>family_num=1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>family_num&gt;3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_house_distribution_len</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_house_distribution_step</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_tenant_distribution_len</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_tenant_distribution_step</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>environment_max_turns</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>order_type</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>order_waitlist_ratio</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>order_k</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>policy_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_type</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_priority</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tenant_max_choose</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>community_patch_method</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_portion_settings</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_portion_attribute</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>3&gt;=family_num&gt;=2</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>family_num=1</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>family_num&gt;3</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean_house_area</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22.89194444444444</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.0975</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.09583333333333</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>mean_wait_turn</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -506,23 +697,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>22.89194444444444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.0975</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>26.09583333333333</v>
-      </c>
+        <v>180.3719245039682</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -530,59 +764,212 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.285714285714286</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20.56166666666667</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.399</v>
+      </c>
       <c r="F6" t="n">
-        <v>180.3719245039682</v>
-      </c>
+        <v>23.52517857142857</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.2</v>
+      </c>
       <c r="F7" t="n">
-        <v>35</v>
-      </c>
+        <v>1.178571428571429</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -590,23 +977,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>20.56166666666667</v>
-      </c>
-      <c r="D8" t="n">
-        <v>43.32</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.399</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>23.52517857142857</v>
-      </c>
+        <v>104.1333236784297</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -614,59 +1044,212 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1.178571428571429</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>22.32055555555556</v>
+      </c>
+      <c r="D10" t="n">
+        <v>41.636</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.89625</v>
+      </c>
       <c r="F10" t="n">
-        <v>104.1333236784297</v>
-      </c>
+        <v>28.60737179487179</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.75</v>
+      </c>
       <c r="F11" t="n">
-        <v>60</v>
-      </c>
+        <v>1.884615384615385</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -674,23 +1257,66 @@
           <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>22.32055555555556</v>
-      </c>
-      <c r="D12" t="n">
-        <v>41.636</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14.89625</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>28.60737179487179</v>
-      </c>
+        <v>123.6105216181788</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -698,59 +1324,224 @@
           <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1.916666666666667</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1.884615384615385</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>20.25075757575757</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.862</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.94375</v>
+      </c>
       <c r="F14" t="n">
-        <v>123.6105216181788</v>
+        <v>22.52576388888889</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.625</v>
+      </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>1.583333333333333</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -758,23 +1549,72 @@
           <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>20.25075757575757</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42.862</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.94375</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>22.52576388888889</v>
+        <v>124.699637263696</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -782,59 +1622,218 @@
           <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1.545454545454545</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.625</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>1.583333333333333</v>
+        <v>52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>19.925</v>
+      </c>
+      <c r="D18" t="n">
+        <v>41.88166666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14.02678571428571</v>
+      </c>
       <c r="F18" t="n">
-        <v>124.699637263696</v>
-      </c>
+        <v>23.15544642857143</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.857142857142857</v>
+      </c>
       <c r="F19" t="n">
-        <v>52</v>
-      </c>
+        <v>1.857142857142857</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -842,23 +1841,66 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>19.925</v>
-      </c>
-      <c r="D20" t="n">
-        <v>41.88166666666667</v>
-      </c>
-      <c r="E20" t="n">
-        <v>14.02678571428571</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>23.15544642857143</v>
-      </c>
+        <v>120.8909466509</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -866,59 +1908,228 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.857142857142857</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>1.857142857142857</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21.06428571428572</v>
+      </c>
+      <c r="D22" t="n">
+        <v>39.95285714285715</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.045</v>
+      </c>
       <c r="F22" t="n">
-        <v>120.8909466509</v>
+        <v>25.23</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.25</v>
+      </c>
       <c r="F23" t="n">
-        <v>74</v>
+        <v>2.52</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -926,23 +2137,74 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>21.06428571428572</v>
-      </c>
-      <c r="D24" t="n">
-        <v>39.95285714285715</v>
-      </c>
-      <c r="E24" t="n">
-        <v>14.045</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>25.23</v>
+        <v>107.9755868888889</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -950,59 +2212,220 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>2.285714285714286</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.142857142857143</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.25</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>2.52</v>
+        <v>43</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>22.143125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.98</v>
+      </c>
       <c r="F26" t="n">
-        <v>107.9755868888889</v>
-      </c>
+        <v>25.12607142857143</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>43</v>
-      </c>
+        <v>1.392857142857143</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1010,23 +2433,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>22.143125</v>
-      </c>
-      <c r="D28" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12.98</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>25.12607142857143</v>
-      </c>
+        <v>115.8793583262472</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1034,59 +2500,228 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>1.392857142857143</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>19.55166666666666</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43.83</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>115.8793583262472</v>
+        <v>26.015</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
       <c r="F31" t="n">
-        <v>72</v>
+        <v>1.833333333333333</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1094,23 +2729,74 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>19.55166666666666</v>
-      </c>
-      <c r="D32" t="n">
-        <v>43.83</v>
-      </c>
-      <c r="E32" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>26.015</v>
+        <v>138.6375833333333</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1118,59 +2804,216 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>1.833333333333333</v>
+        <v>36</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>20.31833333333333</v>
+      </c>
+      <c r="D34" t="n">
+        <v>40.5775</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13.66535714285714</v>
+      </c>
       <c r="F34" t="n">
-        <v>138.6375833333333</v>
-      </c>
+        <v>24.44342261904762</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.461538461538462</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.571428571428571</v>
+      </c>
       <c r="F35" t="n">
-        <v>36</v>
-      </c>
+        <v>1.535714285714286</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1178,23 +3021,64 @@
           <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>20.31833333333333</v>
-      </c>
-      <c r="D36" t="n">
-        <v>40.5775</v>
-      </c>
-      <c r="E36" t="n">
-        <v>13.66535714285714</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>24.44342261904762</v>
-      </c>
+        <v>129.3372927747662</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1202,59 +3086,210 @@
           <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1.461538461538462</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.625</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.571428571428571</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>1.535714285714286</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>24.08166666666667</v>
+      </c>
+      <c r="D38" t="n">
+        <v>41.02333333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.175</v>
+      </c>
       <c r="F38" t="n">
-        <v>129.3372927747662</v>
-      </c>
+        <v>28.40592592592593</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
       <c r="F39" t="n">
-        <v>54</v>
-      </c>
+        <v>1.555555555555556</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1262,23 +3297,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>24.08166666666667</v>
-      </c>
-      <c r="D40" t="n">
-        <v>41.02333333333333</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.175</v>
-      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>28.40592592592593</v>
-      </c>
+        <v>101.6039938957476</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1286,59 +3364,208 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>1.555555555555556</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20.78047619047619</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41.97875000000001</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.44</v>
+      </c>
       <c r="F42" t="n">
-        <v>101.6039938957476</v>
-      </c>
+        <v>25.86602564102564</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>10</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.25</v>
+      </c>
       <c r="F43" t="n">
-        <v>3</v>
-      </c>
+        <v>4.346153846153846</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1346,23 +3573,64 @@
           <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>20.78047619047619</v>
-      </c>
-      <c r="D44" t="n">
-        <v>41.97875000000001</v>
-      </c>
-      <c r="E44" t="n">
-        <v>11.44</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>25.86602564102564</v>
-      </c>
+        <v>136.4937683925049</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -1370,59 +3638,210 @@
           <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>4.346153846153846</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20.79692307692308</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44.57571428571429</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14.03</v>
+      </c>
       <c r="F46" t="n">
-        <v>136.4937683925049</v>
-      </c>
+        <v>24.80821428571429</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q46" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.625</v>
+      </c>
       <c r="F47" t="n">
-        <v>63</v>
-      </c>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1430,23 +3849,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>20.79692307692308</v>
-      </c>
-      <c r="D48" t="n">
-        <v>44.57571428571429</v>
-      </c>
-      <c r="E48" t="n">
-        <v>14.03</v>
-      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>24.80821428571429</v>
-      </c>
+        <v>153.5039130810657</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q48" t="b">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -1454,59 +3916,212 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1.538461538461538</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2.142857142857143</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.625</v>
-      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>1.714285714285714</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20.85770833333333</v>
+      </c>
+      <c r="D50" t="n">
+        <v>40.08571428571429</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.4725</v>
+      </c>
       <c r="F50" t="n">
-        <v>153.5039130810657</v>
-      </c>
+        <v>24.16735119047619</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.4</v>
+      </c>
       <c r="F51" t="n">
-        <v>80</v>
-      </c>
+        <v>1.357142857142857</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1514,23 +4129,66 @@
           <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>20.85770833333333</v>
-      </c>
-      <c r="D52" t="n">
-        <v>40.08571428571429</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12.4725</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>24.16735119047619</v>
-      </c>
+        <v>117.0306998538478</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -1538,59 +4196,208 @@
           <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>1.357142857142857</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>10</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>19.23927083333334</v>
+      </c>
+      <c r="D54" t="n">
+        <v>41.795</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13.22375</v>
+      </c>
       <c r="F54" t="n">
-        <v>117.0306998538478</v>
-      </c>
+        <v>22.78360119047619</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>10</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q54" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.4375</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.166666666666667</v>
+      </c>
       <c r="F55" t="n">
-        <v>62</v>
-      </c>
+        <v>1.321428571428571</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q55" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1598,23 +4405,64 @@
           <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>19.23927083333334</v>
-      </c>
-      <c r="D56" t="n">
-        <v>41.795</v>
-      </c>
-      <c r="E56" t="n">
-        <v>13.22375</v>
-      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>22.78360119047619</v>
-      </c>
+        <v>115.239236857816</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>10</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
@@ -1622,59 +4470,210 @@
           <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1.4375</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.166666666666667</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1.166666666666667</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>1.321428571428571</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>var_mean_house_area</t>
+          <t>mean_house_area</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>20.38611111111112</v>
+      </c>
+      <c r="D58" t="n">
+        <v>40.345</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13.51375</v>
+      </c>
       <c r="F58" t="n">
-        <v>115.239236857816</v>
-      </c>
+        <v>23.29422839506173</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Rop</t>
+          <t>mean_wait_turn</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.833333333333333</v>
+      </c>
       <c r="F59" t="n">
-        <v>62</v>
-      </c>
+        <v>1.555555555555556</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>10</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q59" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>mean_house_area</t>
+          <t>var_mean_house_area</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1682,23 +4681,66 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>20.38611111111112</v>
-      </c>
-      <c r="D60" t="n">
-        <v>40.345</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13.51375</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>23.29422839506173</v>
-      </c>
+        <v>113.8089730928974</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>10</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>mean_wait_turn</t>
+          <t>Rop</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -1706,59 +4748,63 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1.833333333333333</v>
-      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>1.555555555555556</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>var_mean_house_area</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
-        <v>113.8089730928974</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Rop</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
         <v>68</v>
       </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>10</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>